--- a/lin_R1_by_R2 (1 by 3)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 3)1000.xlsx
@@ -356,6 +356,152 @@
         <v>-0.07692540270885455</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -659,6 +805,152 @@
       </c>
       <c r="AV2" t="n">
         <v>-0.07710153689178485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +1258,152 @@
         <v>-0.07712709757839398</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,6 +1709,152 @@
         <v>-0.07692206137981968</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.740920889440843</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.1916895476403813</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.759173666288139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4735938440434175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.372995560518043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.505275236799243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.930730894527718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.725273245427864</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.984468213516905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.828626169041708</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.40920889440843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21.916895476403813</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.591736662881388</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.735938440434175</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43.729955605180436</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55.05275236799243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69.30730894527719</v>
+      </c>
+      <c r="R3" t="n">
+        <v>87.25273245427864</v>
+      </c>
+      <c r="S3" t="n">
+        <v>109.84468213516904</v>
+      </c>
+      <c r="T3" t="n">
+        <v>138.2862616904171</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174.0920889440843</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219.16895476403812</v>
+      </c>
+      <c r="W3" t="n">
+        <v>275.9173666288139</v>
+      </c>
+      <c r="X3" t="n">
+        <v>347.35938440434177</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>437.29955605180436</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>550.5275236799243</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>693.0730894527718</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>872.5273245427865</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1098.4468213516905</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1382.8626169041709</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1740.920889440843</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2191.689547640381</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2759.173666288139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3473.5938440434174</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4372.995560518044</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5505.2752367992425</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6930.730894527718</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8725.273245427865</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10984.468213516904</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13828.626169041709</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17409.20889440843</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21916.895476403814</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>27591.73666288139</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34735.938440434176</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>43729.95560518043</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>55052.75236799243</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>69307.30894527718</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>87252.73245427865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 3)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 3)1000.xlsx
@@ -66,142 +66,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9999986031513131</v>
+        <v>0.9999968983483246</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9999977861468238</v>
+        <v>0.9999950842271726</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9999964912862016</v>
+        <v>0.9999922090597698</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9999944390810446</v>
+        <v>0.9999876522789264</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9999911865817577</v>
+        <v>0.9999804303996089</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9999860317848362</v>
+        <v>0.9999689848228465</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9999778621507218</v>
+        <v>0.9999508456365453</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9999649145763002</v>
+        <v>0.9999220990493228</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9999443951163786</v>
+        <v>0.999876544017116</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9999118766329854</v>
+        <v>0.9998043573114004</v>
       </c>
       <c r="K1" t="n">
-        <v>0.999860345013025</v>
+        <v>0.9996899821240338</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9997786897321477</v>
+        <v>0.9995087925907113</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9996493170980079</v>
+        <v>0.9992218346343748</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9994443813855871</v>
+        <v>0.9987675588936674</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9991198463924517</v>
+        <v>0.9980488884914085</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9986061607166729</v>
+        <v>0.9969131466157147</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9977936964398365</v>
+        <v>0.9951212937236091</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9965102116334535</v>
+        <v>0.9923017514646982</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9944864677156408</v>
+        <v>0.9878834756324971</v>
       </c>
       <c r="T1" t="n">
-        <v>0.991305012077551</v>
+        <v>0.9810047499171161</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9863269120640981</v>
+        <v>0.9704027991565835</v>
       </c>
       <c r="V1" t="n">
-        <v>0.978594285889492</v>
+        <v>0.9543132389102411</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9667181767334417</v>
+        <v>0.9304588794342802</v>
       </c>
       <c r="X1" t="n">
-        <v>0.9487912848849281</v>
+        <v>0.8962843427997348</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9224238705009851</v>
+        <v>0.8496408807217917</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8850795998243801</v>
+        <v>0.7899785786284483</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.8349049267652904</v>
+        <v>0.719580535437311</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7720082037185254</v>
+        <v>0.6437514772577732</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6995346319156212</v>
+        <v>0.5691649079742575</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.6233905506220292</v>
+        <v>0.501184608567314</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5501576358379147</v>
+        <v>0.44214324389308884</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4844768623773227</v>
+        <v>0.3916075843923435</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4278385247981946</v>
+        <v>0.34788100226852425</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3793064063247834</v>
+        <v>0.3093872509443094</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3371106888413754</v>
+        <v>0.2751884911099856</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2998339229080773</v>
+        <v>0.24478619972191537</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26669149266839387</v>
+        <v>0.21779489020847984</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23724014569817622</v>
+        <v>0.1938319451748525</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.211096753644916</v>
+        <v>0.17254386418282455</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1878828205522919</v>
+        <v>0.15362262910997054</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16725696416445343</v>
+        <v>0.1367986296670358</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14892234646472985</v>
+        <v>0.12183421510235952</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13261837006196014</v>
+        <v>0.1085197710933729</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1181152515644275</v>
+        <v>0.09667022161249207</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10521027421478193</v>
+        <v>0.08612196895719419</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09372439450290472</v>
+        <v>0.07673025185563914</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08349930214377375</v>
@@ -212,142 +212,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61211608523166</v>
+        <v>-185.63108778596276</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7212777615411</v>
+        <v>-147.45270551745284</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53139869453787</v>
+        <v>-117.12671750077715</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.6359530363772</v>
+        <v>-93.03815428382023</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12337740876762</v>
+        <v>-73.9042120240123</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47527318074378</v>
+        <v>-58.70593850004915</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48554620114379</v>
+        <v>-46.63397017871907</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.196177879922516</v>
+        <v>-37.04543063193998</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84620719064957</v>
+        <v>-29.42969497591162</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.83120669276899</v>
+        <v>-23.381197140743396</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.67109451004199</v>
+        <v>-18.57783181233147</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.98456810776816</v>
+        <v>-14.76380077925718</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.4687983186713</v>
+        <v>-11.735990007624176</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.883302139849421</v>
+        <v>-9.333151611805953</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.03713524917858</v>
+        <v>-7.427313908172428</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.778721761999954</v>
+        <v>-5.916960707546339</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.987778770586523</v>
+        <v>-4.721613907399084</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.568903946964571</v>
+        <v>-3.7775257197140806</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.446481496382102</v>
+        <v>-3.0342415599631622</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.560629069476892</v>
+        <v>-2.451833674110351</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.863958584288557</v>
+        <v>-1.9986308728003106</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.3189590461874103</v>
+        <v>-1.6492863889284644</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8958316557772086</v>
+        <v>-1.3830503382205441</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5706238640552332</v>
+        <v>-1.1821858053791061</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.3235411942913795</v>
+        <v>-1.0306486317373837</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.1374114104971618</v>
+        <v>-0.9134364528406377</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9964918798556276</v>
+        <v>-0.8171309681105392</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8860941773409478</v>
+        <v>-0.7315749572129941</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7934820640082655</v>
+        <v>-0.651407645654209</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.709682733593033</v>
+        <v>-0.5758126899852674</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6306722271371755</v>
+        <v>-0.5063671644945902</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5565337463071541</v>
+        <v>-0.4446065468495763</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4890389434718258</v>
+        <v>-0.3908033639906248</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.42943948415293576</v>
+        <v>-0.34413226294641597</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.37765495697382884</v>
+        <v>-0.3034385440937059</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.33269441314338283</v>
+        <v>-0.2677760754476049</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2934275782948941</v>
+        <v>-0.2364672097201532</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.25898947961061214</v>
+        <v>-0.20896685488628813</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22875089862007383</v>
+        <v>-0.18479258818959376</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.20218611484598392</v>
+        <v>-0.163521262832069</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17882816752763228</v>
+        <v>-0.14478687721046932</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15826988484024204</v>
+        <v>-0.12827224841237944</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14015914998809884</v>
+        <v>-0.11370197410178308</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12419058216216614</v>
+        <v>-0.10083670073430459</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1100989604187564</v>
+        <v>-0.08946816704791802</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09765371214759372</v>
+        <v>-0.07941494922235083</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08665415292368672</v>
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -517,142 +517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0000008712976147</v>
+        <v>1.0000019346736924</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0000013809081658</v>
+        <v>1.0000030662240855</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0000021885781556</v>
+        <v>1.00000485956966</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0000034686279669</v>
+        <v>1.0000077017280153</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0000054973178067</v>
+        <v>1.0000122059871295</v>
       </c>
       <c r="F1" t="n">
-        <v>1.0000087124429218</v>
+        <v>1.000019344107882</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0000138077422625</v>
+        <v>1.000030655637036</v>
       </c>
       <c r="H1" t="n">
-        <v>1.0000218824171594</v>
+        <v>1.000048579108695</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0000346778287337</v>
+        <v>1.0000769756137666</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0000549519504784</v>
+        <v>1.0001219552122436</v>
       </c>
       <c r="K1" t="n">
-        <v>1.000087071108719</v>
+        <v>1.0001931781958753</v>
       </c>
       <c r="L1" t="n">
-        <v>1.000137943490747</v>
+        <v>1.0003058960730515</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0002184877625422</v>
+        <v>1.0004841326343912</v>
       </c>
       <c r="N1" t="n">
-        <v>1.0003459333164324</v>
+        <v>1.000765590852677</v>
       </c>
       <c r="O1" t="n">
-        <v>1.0005473972358867</v>
+        <v>1.001209091658274</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0008653810012527</v>
+        <v>1.0019055156496972</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.001366049622816</v>
+        <v>1.0029930205637672</v>
       </c>
       <c r="R1" t="n">
-        <v>1.002151268714092</v>
+        <v>1.004675850436098</v>
       </c>
       <c r="S1" t="n">
-        <v>1.0033749667784666</v>
+        <v>1.0072409303076644</v>
       </c>
       <c r="T1" t="n">
-        <v>1.0052622867073837</v>
+        <v>1.0110515377332985</v>
       </c>
       <c r="U1" t="n">
-        <v>1.0081230864665889</v>
+        <v>1.016458113290856</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0123318717753442</v>
+        <v>1.023472303801698</v>
       </c>
       <c r="W1" t="n">
-        <v>1.0181961586257797</v>
+        <v>1.030859221568749</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0255191222280495</v>
+        <v>1.0340691965763977</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.0324435829513556</v>
+        <v>1.021864811755858</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.032986309446013</v>
+        <v>0.9750784578320412</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.0136226773492023</v>
+        <v>0.8778825790385838</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.9541869334740309</v>
+        <v>0.7414991584947574</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.8438906681883706</v>
+        <v>0.6034290547723571</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.7030491924462193</v>
+        <v>0.49303482353230943</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5705484752670759</v>
+        <v>0.41554631063328606</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4692732629482124</v>
+        <v>0.36305692068399714</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.39946682540981315</v>
+        <v>0.32569433011553334</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.35194237803053663</v>
+        <v>0.295596067461858</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.31718358242484956</v>
+        <v>0.2678315976843829</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.28806050878175954</v>
+        <v>0.2407020550313465</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26050423134675993</v>
+        <v>0.2149089843038039</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2336093612731677</v>
+        <v>0.19153966961736338</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.2083870195001946</v>
+        <v>0.1708147031556726</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.185741413385829</v>
+        <v>0.15238128931879807</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1656707774342685</v>
+        <v>0.13590842513833165</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14778788014147376</v>
+        <v>0.12119172547885201</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1318027551104951</v>
+        <v>0.10805672168079379</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11752656659136028</v>
+        <v>0.09633703896902923</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10478624391378293</v>
+        <v>0.08588248783052081</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09341937460349782</v>
+        <v>0.0765583167647318</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08328013030629483</v>
@@ -663,142 +663,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61151929825144</v>
+        <v>-185.630198508918</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7205264551102</v>
+        <v>-147.4515859967678</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.53045286348944</v>
+        <v>-117.12530813324634</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63476232101743</v>
+        <v>-93.03638004611699</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12187841763455</v>
+        <v>-73.90197849262987</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47338612395124</v>
+        <v>-58.70312685324429</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.4831706595754</v>
+        <v>-46.63043092935011</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.193187494050946</v>
+        <v>-37.040975787482495</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84244300425603</v>
+        <v>-29.424088268036346</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82646883322216</v>
+        <v>-23.37414192355133</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.665131834129795</v>
+        <v>-18.568956222725735</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.977065405311144</v>
+        <v>-14.752639842989423</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.459360678623487</v>
+        <v>-11.721964680432036</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.87143621598723</v>
+        <v>-9.31554551014355</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.022227560217233</v>
+        <v>-7.405250192506536</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.760015117170205</v>
+        <v>-5.889385178146561</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.9643500066628965</v>
+        <v>-4.687297656671401</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.539650522561101</v>
+        <v>-3.7351149435112334</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.410133238303308</v>
+        <v>-2.9824089332349564</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.515818326524684</v>
+        <v>-2.3896329935747826</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.80941349117635</v>
+        <v>-1.9262303526837599</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.253938744277262</v>
+        <v>-1.569337272040015</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8210020323333636</v>
+        <v>-1.3029119422195037</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.4896425427249151</v>
+        <v>-1.116631044396215</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.2454991333516123</v>
+        <v>-1.0025228645309694</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.0793814375629185</v>
+        <v>-0.9459890920568621</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.982707597727221</v>
+        <v>-0.9144799247782224</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.936904079101456</v>
+        <v>-0.8658809770943691</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9045916139198236</v>
+        <v>-0.7818777543613363</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8466922858123959</v>
+        <v>-0.6768550843210754</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7548214987403999</v>
+        <v>-0.5727617908187262</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.6481570892368425</v>
+        <v>-0.48246764306631484</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.5469444753361004</v>
+        <v>-0.40977080868820553</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.46126700928452724</v>
+        <v>-0.35328361612030357</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.39318988372425195</v>
+        <v>-0.3090277519373412</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.3404298191583572</v>
+        <v>-0.27245206882659817</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2986487840180059</v>
+        <v>-0.2404451398878281</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2635088849612684</v>
+        <v>-0.2119599572986756</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.23248117829524054</v>
+        <v>-0.18688879194221278</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.20491547773872118</v>
+        <v>-0.16499614364926674</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.18073185506468717</v>
+        <v>-0.1458413526762475</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15961702584965706</v>
+        <v>-0.12902544372909844</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14112319872991755</v>
+        <v>-0.11423844055698587</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12487844731308088</v>
+        <v>-0.10121853851254868</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.11058876963278107</v>
+        <v>-0.08973974385918608</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09800227823196615</v>
+        <v>-0.07960796786419283</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08690201560999408</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -968,142 +968,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.2666697076401534</v>
+        <v>1.2666734190170432</v>
       </c>
       <c r="B1" t="n">
-        <v>1.2666714862717106</v>
+        <v>1.2666773683560548</v>
       </c>
       <c r="C1" t="n">
-        <v>1.2666743051929008</v>
+        <v>1.2666836275386593</v>
       </c>
       <c r="D1" t="n">
-        <v>1.2666787728320252</v>
+        <v>1.266693547428607</v>
       </c>
       <c r="E1" t="n">
-        <v>1.2666858534375627</v>
+        <v>1.2667092687767934</v>
       </c>
       <c r="F1" t="n">
-        <v>1.2666970751263242</v>
+        <v>1.2667341838822845</v>
       </c>
       <c r="G1" t="n">
-        <v>1.2667148595137425</v>
+        <v>1.2667736677634451</v>
       </c>
       <c r="H1" t="n">
-        <v>1.2667430438817966</v>
+        <v>1.2668362356981409</v>
       </c>
       <c r="I1" t="n">
-        <v>1.2667877081036916</v>
+        <v>1.266935374561642</v>
       </c>
       <c r="J1" t="n">
-        <v>1.266858483582451</v>
+        <v>1.267092437145924</v>
       </c>
       <c r="K1" t="n">
-        <v>1.2669706236308849</v>
+        <v>1.2673412087889735</v>
       </c>
       <c r="L1" t="n">
-        <v>1.2671482743576559</v>
+        <v>1.2677350930714915</v>
       </c>
       <c r="M1" t="n">
-        <v>1.2674296323320517</v>
+        <v>1.268358368822294</v>
       </c>
       <c r="N1" t="n">
-        <v>1.267875052356139</v>
+        <v>1.2693436963159557</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2685797285494458</v>
+        <v>1.2708990034931813</v>
       </c>
       <c r="P1" t="n">
-        <v>1.2696933618265431</v>
+        <v>1.2733478686046786</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.2714502230673352</v>
+        <v>1.2771876429375153</v>
       </c>
       <c r="R1" t="n">
-        <v>1.2742139152521286</v>
+        <v>1.2831656994561695</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2785406660206124</v>
+        <v>1.2923561358965616</v>
       </c>
       <c r="T1" t="n">
-        <v>1.2852588358144423</v>
+        <v>1.3061542343309143</v>
       </c>
       <c r="U1" t="n">
-        <v>1.2955365372152075</v>
+        <v>1.3258905290899794</v>
       </c>
       <c r="V1" t="n">
-        <v>1.310819128297922</v>
+        <v>1.3510986514028631</v>
       </c>
       <c r="W1" t="n">
-        <v>1.3322242745389654</v>
+        <v>1.3737458113638208</v>
       </c>
       <c r="X1" t="n">
-        <v>1.3580970300671371</v>
+        <v>1.3640965376956213</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.3763771545058523</v>
+        <v>1.2595181363805568</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.3484153315723864</v>
+        <v>1.0256026949302126</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.2080840395915882</v>
+        <v>0.7579450519369838</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.9510529122831506</v>
+        <v>0.5664233644836236</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6972925919210765</v>
+        <v>0.45805174167650803</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5305427026483704</v>
+        <v>0.4001365984193449</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.43887330257660384</v>
+        <v>0.3676516513826322</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.38968624699138316</v>
+        <v>0.34613480432161114</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.36125614313664706</v>
+        <v>0.32632833562738517</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.34098036863593395</v>
+        <v>0.30198123269078503</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3204215168013364</v>
+        <v>0.2719305360646911</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2943781069901974</v>
+        <v>0.2408680628427445</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.26345333775793034</v>
+        <v>0.21356750635818822</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.23309038844588964</v>
+        <v>0.19059333835875852</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.20704846532647042</v>
+        <v>0.170415273065461</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18497427506537828</v>
+        <v>0.15215524628640179</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.16534760991200628</v>
+        <v>0.13573001360453177</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14757662969000548</v>
+        <v>0.12106397657600451</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13163769534139477</v>
+        <v>0.10796860371664009</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11741105718297352</v>
+        <v>0.09627532974765957</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10470620306345277</v>
+        <v>0.08583923869983782</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09336326435253925</v>
+        <v>0.0765279818682036</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08324080473962334</v>
@@ -1114,142 +1114,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61167538999837</v>
+        <v>-185.6304311188415</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.7207229685922</v>
+        <v>-147.45187885389123</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.5307002705096</v>
+        <v>-117.1256768555928</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.63507381035706</v>
+        <v>-93.036844314018</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.12227060408411</v>
+        <v>-73.90256311888004</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.4738799464379</v>
+        <v>-58.703863148583686</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48379252283478</v>
+        <v>-46.63135845790073</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.1939707278504</v>
+        <v>-37.04214464935949</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84342974424329</v>
+        <v>-29.42556211802136</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.82771247619334</v>
+        <v>-23.376002061031894</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.666700303570746</v>
+        <v>-18.5713073194115</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.979045611094246</v>
+        <v>-14.75561831118638</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.46186482818516</v>
+        <v>-11.725751525986775</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.874611153464492</v>
+        <v>-9.320387164317873</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.026269316162619</v>
+        <v>-7.41149409845602</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.765192832598778</v>
+        <v>-5.897543514724942</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.971047348208657</v>
+        <v>-4.698166048431936</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.548440690940538</v>
+        <v>-3.7500007603796974</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.421919999789075</v>
+        <v>-3.003581278057747</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5321092282273767</v>
+        <v>-2.421223465287581</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.832861202812287</v>
+        <v>-1.9760297876150676</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.2894265027011524</v>
+        <v>-1.65218170374728</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.8777927003839898</v>
+        <v>-1.4456766131634766</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.5852861244453322</v>
+        <v>-1.3583196993293047</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.4107235576548478</v>
+        <v>-1.3622562083658578</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3533242377574646</v>
+        <v>-1.3488646054464277</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.3663838735474565</v>
+        <v>-1.2203039252201102</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.3263079426747622</v>
+        <v>-1.0197627466251828</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.169768029708032</v>
+        <v>-0.8248608715673508</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9649417320355246</v>
+        <v>-0.6658280135800183</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.7784136345132526</v>
+        <v>-0.5446205004290064</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.6298414888615734</v>
+        <v>-0.4559314805830552</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.5179404021222153</v>
+        <v>-0.39320330178507373</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.43688792290086814</v>
+        <v>-0.3481846096156438</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.37981239575226766</v>
+        <v>-0.31112412049810756</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.337857654131693</v>
+        <v>-0.27569589283312607</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.3015725528456801</v>
+        <v>-0.24202888138510242</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2664027949844926</v>
+        <v>-0.21235801041498745</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.23363388385171588</v>
+        <v>-0.18707147265137777</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.20518887225630644</v>
+        <v>-0.16520495631656906</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.18092294463553896</v>
+        <v>-0.1460057908634091</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1598201399412818</v>
+        <v>-0.12913667852202246</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14127135913762132</v>
+        <v>-0.11431700363498373</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12497938594120162</v>
+        <v>-0.10127440185044484</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1106605371629163</v>
+        <v>-0.08977931097961162</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09805321346641827</v>
+        <v>-0.07963600058191946</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.0869380949918818</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1419,142 +1419,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9999997003204971</v>
+        <v>0.9999993345034809</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9999995250169637</v>
+        <v>0.9999989451455382</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9999992471447648</v>
+        <v>0.999998327883102</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9999988066595413</v>
+        <v>0.9999973491568326</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9999981083178061</v>
+        <v>0.9999957968970692</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9999970009688943</v>
+        <v>0.9999933340105743</v>
       </c>
       <c r="G1" t="n">
-        <v>0.999995244553038</v>
+        <v>0.9999894237656527</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9999924573400808</v>
+        <v>0.9999832092851065</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9999880311615474</v>
+        <v>0.9999733169069356</v>
       </c>
       <c r="J1" t="n">
-        <v>0.999980994183135</v>
+        <v>0.9999575303608164</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9999697861872994</v>
+        <v>0.9999322388446498</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9999518842929642</v>
+        <v>0.9998914733166392</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9999231643271239</v>
+        <v>0.999825156741065</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9998767749389867</v>
+        <v>0.9997157767355075</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9998010691121523</v>
+        <v>0.999531737879255</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9996756186707609</v>
+        <v>0.9992134466869241</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.999463147353453</v>
+        <v>0.9986430688408009</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9990924549546606</v>
+        <v>0.9975772748114825</v>
       </c>
       <c r="S1" t="n">
-        <v>0.998421014085771</v>
+        <v>0.9954973749322932</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9971515491185644</v>
+        <v>0.9912854000123695</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9946469328214378</v>
+        <v>0.982585970187106</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9895367184904438</v>
+        <v>0.9648293147062723</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9789755399885857</v>
+        <v>0.9307706763260215</v>
       </c>
       <c r="X1" t="n">
-        <v>0.9576510282746317</v>
+        <v>0.8735417695196898</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9178750802530649</v>
+        <v>0.7951789217923372</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8542042799162038</v>
+        <v>0.7103438555266236</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7723344257595578</v>
+        <v>0.6341592572035708</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6887000428562864</v>
+        <v>0.5713276511752923</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6160584568654605</v>
+        <v>0.519635944090548</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5565315276324495</v>
+        <v>0.4761444155386188</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5072849002505928</v>
+        <v>0.43857179724478373</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.46560081365818307</v>
+        <v>0.4039454386509752</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.42917111266941976</v>
+        <v>0.36798937231746853</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.39463222838264006</v>
+        <v>0.32779588959094347</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.35765096991604084</v>
+        <v>0.2860759481749961</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3165187868940327</v>
+        <v>0.24900087933592144</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.27548041227791115</v>
+        <v>0.21916847227311112</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.24032764670107107</v>
+        <v>0.19475836616449624</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.21221841279051157</v>
+        <v>0.173402222055951</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.18880445294689047</v>
+        <v>0.1542241258508249</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1680592454864549</v>
+        <v>0.13716561944076663</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.14945070953496062</v>
+        <v>0.12206766484027386</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.13294161388375736</v>
+        <v>0.10867102725574417</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.11832325639950281</v>
+        <v>0.09676729076811026</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.10534466106751408</v>
+        <v>0.08618418950477309</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.09381056770087265</v>
+        <v>0.07677008606713659</v>
       </c>
       <c r="AU1" t="n">
         <v>0.08355452751070754</v>
@@ -1565,142 +1565,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-276.61211609247454</v>
+        <v>-185.6310878099275</v>
       </c>
       <c r="B2" t="n">
-        <v>-219.72127777599243</v>
+        <v>-147.45270556526813</v>
       </c>
       <c r="C2" t="n">
-        <v>-174.5313987233718</v>
+        <v>-117.12671759617913</v>
       </c>
       <c r="D2" t="n">
-        <v>-138.6359530939076</v>
+        <v>-93.03815447416584</v>
       </c>
       <c r="E2" t="n">
-        <v>-110.1233775235531</v>
+        <v>-73.90421240378146</v>
       </c>
       <c r="F2" t="n">
-        <v>-87.47527340976222</v>
+        <v>-58.70593925772429</v>
       </c>
       <c r="G2" t="n">
-        <v>-69.48554665806812</v>
+        <v>-46.633971690277406</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.1961787915193</v>
+        <v>-37.04543364725559</v>
       </c>
       <c r="I2" t="n">
-        <v>-43.84620900924893</v>
+        <v>-29.429700990234057</v>
       </c>
       <c r="J2" t="n">
-        <v>-34.83121032048095</v>
+        <v>-23.38120913449642</v>
       </c>
       <c r="K2" t="n">
-        <v>-27.67110174552523</v>
+        <v>-18.57785572278265</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.984582535747037</v>
+        <v>-14.763848422897809</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.468827078735696</v>
+        <v>-11.7360848668514</v>
       </c>
       <c r="N2" t="n">
-        <v>-13.883359436636555</v>
+        <v>-9.333340240995902</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.03724929590168</v>
+        <v>-7.427688249523214</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.778948444228512</v>
+        <v>-5.917701219272393</v>
       </c>
       <c r="Q2" t="n">
-        <v>-6.988228307162664</v>
+        <v>-4.723071203523885</v>
       </c>
       <c r="R2" t="n">
-        <v>-5.569792183617231</v>
+        <v>-3.7803695791425316</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.448226249758556</v>
+        <v>-3.039714904447488</v>
       </c>
       <c r="T2" t="n">
-        <v>-3.5640235067201536</v>
+        <v>-2.4621267548629335</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.8704585396831823</v>
+        <v>-2.017241657991401</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.331078601929652</v>
+        <v>-1.680739946041769</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.9174261085845676</v>
+        <v>-1.4304299911347427</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.6062132779129863</v>
+        <v>-1.2412532332519857</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.3749364502654164</v>
+        <v>-1.085339370484382</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.1973227556307282</v>
+        <v>-0.943334243342874</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.0463428458664672</v>
+        <v>-0.8124284692963698</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.9070157709322385</v>
+        <v>-0.697297421509127</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7798844597515061</v>
+        <v>-0.6001066219176702</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6695187692217707</v>
+        <v>-0.5199698688910517</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.57703865849137</v>
+        <v>-0.45558964274292596</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.5012258849205781</v>
+        <v>-0.4059328824462969</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.4409064017833324</v>
+        <v>-0.3683880983883241</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.39487975237759243</v>
+        <v>-0.33679949596164527</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.359672035233173</v>
+        <v>-0.30433449225394726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.32837725458223654</v>
+        <v>-0.2698220536229982</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2951756349676376</v>
+        <v>-0.23701640893542159</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2607010266197662</v>
+        <v>-0.20864176662456127</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.22894893611628966</v>
+        <v>-0.18450898844473465</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.2018149235773961</v>
+        <v>-0.16342272303322905</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.17860405290663853</v>
+        <v>-0.14474212244111534</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.15819619795530698</v>
+        <v>-0.12824065597480266</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.14011839302379978</v>
+        <v>-0.113682949010807</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.12416258613105546</v>
+        <v>-0.10082559539929782</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.11008253676416306</v>
+        <v>-0.08946160275308031</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.09764406114475072</v>
+        <v>-0.07941109389237111</v>
       </c>
       <c r="AU2" t="n">
         <v>-0.08664845797265412</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.740920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>2.759173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>4.372995560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>5.505275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>6.930730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>8.725273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>10.984468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>13.828626169041708</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>17.40920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>21.916895476403813</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>27.591736662881388</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>34.735938440434175</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>43.729955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>55.05275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.30730894527719</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>87.25273245427864</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>109.84468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>138.2862616904171</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>174.0920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>219.16895476403812</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>347.35938440434177</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.29955605180436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>550.5275236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>872.5273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.4468213516905</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>1382.8626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1740.920889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>2191.689547640381</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>2759.173666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>3473.5938440434174</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>4372.995560518044</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5505.2752367992425</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>6930.730894527718</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>8725.273245427865</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>10984.468213516904</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>13828.626169041709</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>17409.20889440843</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>21916.895476403814</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27591.73666288139</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>34735.938440434176</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>43729.95560518043</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>55052.75236799243</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 3)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 3)1000.xlsx
@@ -358,142 +358,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -809,142 +809,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1260,142 +1260,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>
@@ -1711,142 +1711,142 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>2.5941879585179306</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>3.2658891439486557</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>4.1115108354196614</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>5.176085471576878</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>6.516305533786727</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>8.203542627499067</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>10.327648280495266</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>13.001738864387825</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>16.368219453889672</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>20.60636741632535</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>25.941879585179304</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>32.65889143948655</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>41.115108354196614</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>51.76085471576878</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>65.16305533786726</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>82.03542627499066</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>103.27648280495266</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>130.01738864387826</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>163.6821945388967</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>206.06367416325352</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>259.41879585179305</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>326.5889143948655</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>411.15108354196616</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>517.6085471576878</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>651.6305533786727</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>820.3542627499065</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>1032.7648280495266</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>1300.1738864387826</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>1636.8219453889672</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>2060.636741632535</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>2594.1879585179304</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>3265.8891439486556</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>4111.510835419662</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>5176.085471576877</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>6516.305533786727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>8203.542627499066</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>10327.648280495267</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>13001.738864387826</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>16368.219453889671</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>20606.367416325353</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>25941.879585179304</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>32658.891439486557</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>41115.108354196615</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>51760.85471576878</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>65163.05533786727</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>82035.42627499066</v>
       </c>
       <c r="AU3" t="n">
         <v>69307.30894527718</v>

--- a/lin_R1_by_R2 (1 by 3)1000.xlsx
+++ b/lin_R1_by_R2 (1 by 3)1000.xlsx
@@ -66,440 +66,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9999968983483246</v>
+        <v>0.9999989451551137</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9999950842271726</v>
+        <v>0.9999983281851166</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9999922090597698</v>
+        <v>0.999997350355981</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9999876522789264</v>
+        <v>0.9999958006073015</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9999804303996089</v>
+        <v>0.9999933444363935</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9999689848228465</v>
+        <v>0.9999894517060826</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9999508456365453</v>
+        <v>0.9999832822403669</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9999220990493228</v>
+        <v>0.9999735045374233</v>
       </c>
       <c r="I1" t="n">
-        <v>0.999876544017116</v>
+        <v>0.9999580085286034</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9998043573114004</v>
+        <v>0.999933450531832</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9996899821240338</v>
+        <v>0.9998945325528417</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9995087925907113</v>
+        <v>0.9998328613137134</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9992218346343748</v>
+        <v>0.9997351430953606</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9987675588936674</v>
+        <v>0.9995803306848089</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9980488884914085</v>
+        <v>0.9993351214711843</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9969131466157147</v>
+        <v>0.998946872196462</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9951212937236091</v>
+        <v>0.9983324940659396</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9923017514646982</v>
+        <v>0.9973611630227397</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9878834756324971</v>
+        <v>0.9958276877369578</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9810047499171161</v>
+        <v>0.9934121997356218</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9704027991565835</v>
+        <v>0.989620896406111</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9543132389102411</v>
+        <v>0.9837032153521332</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9304588794342802</v>
+        <v>0.9745463910341472</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8962843427997348</v>
+        <v>0.960565800641204</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8496408807217917</v>
+        <v>0.9396497987000095</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7899785786284483</v>
+        <v>0.9092877708433738</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.719580535437311</v>
+        <v>0.8670804436828043</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6437514772577732</v>
+        <v>0.8117763363739352</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5691649079742575</v>
+        <v>0.7445895790676694</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.501184608567314</v>
+        <v>0.6698822479488721</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.44214324389308884</v>
+        <v>0.5941475374860267</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3916075843923435</v>
+        <v>0.5234788888795954</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.34788100226852425</v>
+        <v>0.4613150957825222</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3093872509443094</v>
+        <v>0.4080327663679842</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2751884911099856</v>
+        <v>0.36218102340272895</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24478619972191537</v>
+        <v>0.32203566532669836</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21779489020847984</v>
+        <v>0.286438002333532</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.1938319451748525</v>
+        <v>0.25478156720854145</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.17254386418282455</v>
+        <v>0.2266669045308828</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15362262910997054</v>
+        <v>0.20171015266196055</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.1367986296670358</v>
+        <v>0.179544069484466</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12183421510235952</v>
+        <v>0.15984539234411227</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.1085197710933729</v>
+        <v>0.14233233832234995</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09667022161249207</v>
+        <v>0.1267568129735752</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08612196895719419</v>
+        <v>0.1129000231872807</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07673025185563914</v>
+        <v>0.10056886803739</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08349930214377375</v>
+        <v>0.08959272022138508</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07439487769115916</v>
+        <v>0.07982065017181035</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07111902137913403</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.63108778596276</v>
+        <v>-318.31075386042016</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45270551745284</v>
+        <v>-252.8436223268277</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12671750077715</v>
+        <v>-200.84133567988601</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03815428382023</v>
+        <v>-159.53458252716715</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.9042120240123</v>
+        <v>-126.72362763509578</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70593850004915</v>
+        <v>-100.6611680052167</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63397017871907</v>
+        <v>-79.95928261562135</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04543063193998</v>
+        <v>-63.51552056079679</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42969497591162</v>
+        <v>-50.454191511513045</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.381197140743396</v>
+        <v>-40.079731993045506</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.57783181233147</v>
+        <v>-31.83966405680993</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.76380077925718</v>
+        <v>-25.295173741289826</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.735990007624176</v>
+        <v>-20.09774248153023</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.333151611805953</v>
+        <v>-15.97058693191739</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.427313908172428</v>
+        <v>-12.693918660774873</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.916960707546339</v>
+        <v>-10.093238455467903</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.721613907399084</v>
+        <v>-8.030041301277203</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7775257197140806</v>
+        <v>-6.394435928399967</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.0342415599631622</v>
+        <v>-5.099283725818255</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.451833674110351</v>
+        <v>-4.075540742803598</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9986308728003106</v>
+        <v>-3.2685469387628294</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.6492863889284644</v>
+        <v>-2.635051064600278</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3830503382205441</v>
+        <v>-2.1407892548580865</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.1821858053791061</v>
+        <v>-1.7584539718584675</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.0306486317373837</v>
+        <v>-1.4659086543872752</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9134364528406377</v>
+        <v>-1.2445531559251688</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8171309681105392</v>
+        <v>-1.0778829253804694</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.7315749572129941</v>
+        <v>-0.9505469537582011</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.651407645654209</v>
+        <v>-0.8484394432389399</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5758126899852674</v>
+        <v>-0.760068865433892</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5063671644945902</v>
+        <v>-0.678348017591115</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4446065468495763</v>
+        <v>-0.6010754499778188</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3908033639906248</v>
+        <v>-0.5293107447530637</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.34413226294641597</v>
+        <v>-0.46481958869692014</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3034385440937059</v>
+        <v>-0.4083468150326406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2677760754476049</v>
+        <v>-0.35936577621977345</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2364672097201532</v>
+        <v>-0.3167499163252978</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20896685488628813</v>
+        <v>-0.27945375648620685</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18479258818959376</v>
+        <v>-0.24672128620157174</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.163521262832069</v>
+        <v>-0.21797541696667577</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14478687721046932</v>
+        <v>-0.1927142082017039</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12827224841237944</v>
+        <v>-0.1704938858376574</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11370197410178308</v>
+        <v>-0.15092977388875536</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.10083670073430459</v>
+        <v>-0.13368888834118928</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08946816704791802</v>
+        <v>-0.11848222491086424</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07941494922235083</v>
+        <v>-0.10505869576235614</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08665415292368672</v>
+        <v>-0.09319991721642042</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07692540270885455</v>
+        <v>-0.08271572555401346</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07344032976482025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -517,440 +526,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0000019346736924</v>
+        <v>1.000000657970248</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0000030662240855</v>
+        <v>1.000001042809435</v>
       </c>
       <c r="C1" t="n">
-        <v>1.00000485956966</v>
+        <v>1.0000016527337072</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0000077017280153</v>
+        <v>1.00000261938664</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0000122059871295</v>
+        <v>1.0000041513984153</v>
       </c>
       <c r="F1" t="n">
-        <v>1.000019344107882</v>
+        <v>1.0000065793984003</v>
       </c>
       <c r="G1" t="n">
-        <v>1.000030655637036</v>
+        <v>1.0000104273305357</v>
       </c>
       <c r="H1" t="n">
-        <v>1.000048579108695</v>
+        <v>1.000016525418464</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0000769756137666</v>
+        <v>1.0000261890470943</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0001219552122436</v>
+        <v>1.0000415018786895</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0001931781958753</v>
+        <v>1.0000657635767969</v>
       </c>
       <c r="L1" t="n">
-        <v>1.0003058960730515</v>
+        <v>1.000104196927271</v>
       </c>
       <c r="M1" t="n">
-        <v>1.0004841326343912</v>
+        <v>1.0001650623369849</v>
       </c>
       <c r="N1" t="n">
-        <v>1.000765590852677</v>
+        <v>1.000261408593075</v>
       </c>
       <c r="O1" t="n">
-        <v>1.001209091658274</v>
+        <v>1.0004138084510583</v>
       </c>
       <c r="P1" t="n">
-        <v>1.0019055156496972</v>
+        <v>1.0006545958893809</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.0029930205637672</v>
+        <v>1.0010343348433466</v>
       </c>
       <c r="R1" t="n">
-        <v>1.004675850436098</v>
+        <v>1.0016314522304792</v>
       </c>
       <c r="S1" t="n">
-        <v>1.0072409303076644</v>
+        <v>1.0025659534789226</v>
       </c>
       <c r="T1" t="n">
-        <v>1.0110515377332985</v>
+        <v>1.004017278046239</v>
       </c>
       <c r="U1" t="n">
-        <v>1.016458113290856</v>
+        <v>1.0062429179238528</v>
       </c>
       <c r="V1" t="n">
-        <v>1.023472303801698</v>
+        <v>1.0095839409123057</v>
       </c>
       <c r="W1" t="n">
-        <v>1.030859221568749</v>
+        <v>1.014415112572618</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0340691965763977</v>
+        <v>1.0209267176120846</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.021864811755858</v>
+        <v>1.028470959500169</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.9750784578320412</v>
+        <v>1.0339603718801467</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.8778825790385838</v>
+        <v>1.0288411408179534</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7414991584947574</v>
+        <v>0.9962861774556578</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6034290547723571</v>
+        <v>0.9168729774560528</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.49303482353230943</v>
+        <v>0.7904248881149929</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.41554631063328606</v>
+        <v>0.6484941266985864</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.36305692068399714</v>
+        <v>0.5269272884067142</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.32569433011553334</v>
+        <v>0.4387255154688319</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.295596067461858</v>
+        <v>0.37883648390153385</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2678315976843829</v>
+        <v>0.3373164154829122</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2407020550313465</v>
+        <v>0.3054465362046801</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2149089843038039</v>
+        <v>0.27723660281254175</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19153966961736338</v>
+        <v>0.2498953363040534</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1708147031556726</v>
+        <v>0.22349919209061642</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15238128931879807</v>
+        <v>0.19922681287389285</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13590842513833165</v>
+        <v>0.1776241859055971</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12119172547885201</v>
+        <v>0.15845235775982464</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10805672168079379</v>
+        <v>0.1413360824992772</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09633703896902923</v>
+        <v>0.1260385579398315</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08588248783052081</v>
+        <v>0.11238195272813703</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0765583167647318</v>
+        <v>0.10019594012523259</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08328013030629483</v>
+        <v>0.0893245702791129</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07423757091948115</v>
+        <v>0.07962805746468812</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07098085105754616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.630198508918</v>
+        <v>-318.31023525174317</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.4515859967678</v>
+        <v>-252.84296943972106</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12530813324634</v>
+        <v>-200.84051374877563</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03638004611699</v>
+        <v>-159.53354778730002</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90197849262987</v>
+        <v>-126.72232499492341</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70312685324429</v>
+        <v>-100.65952811858736</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63043092935011</v>
+        <v>-79.95721820085174</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.040975787482495</v>
+        <v>-63.51292177656011</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.424088268036346</v>
+        <v>-50.45092015518186</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.37414192355133</v>
+        <v>-40.07561423624583</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.568956222725735</v>
+        <v>-31.834481378626986</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.752639842989423</v>
+        <v>-25.28865167059454</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.721964680432036</v>
+        <v>-20.08953673688137</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.31554551014355</v>
+        <v>-15.960266595337199</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.405250192506536</v>
+        <v>-12.680946234323933</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.889385178146561</v>
+        <v>-10.076947218544223</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.687297656671401</v>
+        <v>-8.009611695379757</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7351149435112334</v>
+        <v>-6.3688754983740585</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.9824089332349564</v>
+        <v>-5.067420890790667</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.3896329935747826</v>
+        <v>-4.036054047048833</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9262303526837599</v>
+        <v>-3.2200731507595153</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.569337272040015</v>
+        <v>-2.576454816410705</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.3029119422195037</v>
+        <v>-2.0717415914926174</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.116631044396215</v>
+        <v>-1.680551738443053</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.0025228645309694</v>
+        <v>-1.384598531081271</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9459890920568621</v>
+        <v>-1.171802746596315</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.9144799247782224</v>
+        <v>-1.0340532769377313</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.8658809770943691</v>
+        <v>-0.9604346950020333</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7818777543613363</v>
+        <v>-0.9252045720493237</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6768550843210754</v>
+        <v>-0.8863874526386866</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5727617908187262</v>
+        <v>-0.8141414282602888</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.48246764306631484</v>
+        <v>-0.7136502222240376</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.40977080868820553</v>
+        <v>-0.6072312339370352</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.35328361612030357</v>
+        <v>-0.5114197228963075</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.3090277519373412</v>
+        <v>-0.4326679505653364</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.27245206882659817</v>
+        <v>-0.37099464289909756</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2404451398878281</v>
+        <v>-0.3230837050758026</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2119599572986756</v>
+        <v>-0.2843380807488303</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18688879194221278</v>
+        <v>-0.25097823475637016</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16499614364926674</v>
+        <v>-0.22131635035171088</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1458413526762475</v>
+        <v>-0.19508740152476495</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12902544372909844</v>
+        <v>-0.17215289373427403</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11423844055698587</v>
+        <v>-0.1521118682783864</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.10121853851254868</v>
+        <v>-0.13453436769484844</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08973974385918608</v>
+        <v>-0.11908477672448643</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07960796786419283</v>
+        <v>-0.10548765496297124</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08690201560999408</v>
+        <v>-0.09350508997819335</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07710153689178485</v>
+        <v>-0.08293267139902752</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07359445739903636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -968,440 +986,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.2666734190170432</v>
+        <v>1.2666689630909849</v>
       </c>
       <c r="B1" t="n">
-        <v>1.2666773683560548</v>
+        <v>1.266670306246446</v>
       </c>
       <c r="C1" t="n">
-        <v>1.2666836275386593</v>
+        <v>1.2666724349930691</v>
       </c>
       <c r="D1" t="n">
-        <v>1.266693547428607</v>
+        <v>1.2666758088006562</v>
       </c>
       <c r="E1" t="n">
-        <v>1.2667092687767934</v>
+        <v>1.266681155853883</v>
       </c>
       <c r="F1" t="n">
-        <v>1.2667341838822845</v>
+        <v>1.2666896301826562</v>
       </c>
       <c r="G1" t="n">
-        <v>1.2667736677634451</v>
+        <v>1.2667030606377567</v>
       </c>
       <c r="H1" t="n">
-        <v>1.2668362356981409</v>
+        <v>1.2667243453419084</v>
       </c>
       <c r="I1" t="n">
-        <v>1.266935374561642</v>
+        <v>1.2667580764788218</v>
       </c>
       <c r="J1" t="n">
-        <v>1.267092437145924</v>
+        <v>1.266811529577513</v>
       </c>
       <c r="K1" t="n">
-        <v>1.2673412087889735</v>
+        <v>1.2668962290593562</v>
       </c>
       <c r="L1" t="n">
-        <v>1.2677350930714915</v>
+        <v>1.2670304235163197</v>
       </c>
       <c r="M1" t="n">
-        <v>1.268358368822294</v>
+        <v>1.267242993780764</v>
       </c>
       <c r="N1" t="n">
-        <v>1.2693436963159557</v>
+        <v>1.2675796089885811</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2708990034931813</v>
+        <v>1.2681123876013474</v>
       </c>
       <c r="P1" t="n">
-        <v>1.2733478686046786</v>
+        <v>1.2689549659499328</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.2771876429375153</v>
+        <v>1.2702857583651705</v>
       </c>
       <c r="R1" t="n">
-        <v>1.2831656994561695</v>
+        <v>1.2723832156149333</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2923561358965616</v>
+        <v>1.2756774955892922</v>
       </c>
       <c r="T1" t="n">
-        <v>1.3061542343309143</v>
+        <v>1.2808210902851322</v>
       </c>
       <c r="U1" t="n">
-        <v>1.3258905290899794</v>
+        <v>1.2887697690189541</v>
       </c>
       <c r="V1" t="n">
-        <v>1.3510986514028631</v>
+        <v>1.3008226838705796</v>
       </c>
       <c r="W1" t="n">
-        <v>1.3737458113638208</v>
+        <v>1.3184265560585435</v>
       </c>
       <c r="X1" t="n">
-        <v>1.3640965376956213</v>
+        <v>1.3420904938968072</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.2595181363805568</v>
+        <v>1.3674624738876948</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.0256026949302126</v>
+        <v>1.3743640689791643</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7579450519369838</v>
+        <v>1.310260474845672</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5664233644836236</v>
+        <v>1.1168161861864767</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.45805174167650803</v>
+        <v>0.8443039189091364</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4001365984193449</v>
+        <v>0.6212395508374225</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3676516513826322</v>
+        <v>0.487788595974006</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.34613480432161114</v>
+        <v>0.4160980860990324</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.32632833562738517</v>
+        <v>0.37695537292711945</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.30198123269078503</v>
+        <v>0.3528990331220013</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2719305360646911</v>
+        <v>0.3333710786715863</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2408680628427445</v>
+        <v>0.3110347878135625</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21356750635818822</v>
+        <v>0.28263791790174136</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19059333835875852</v>
+        <v>0.2512299015701498</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.170415273065461</v>
+        <v>0.22236510435706683</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.15215524628640179</v>
+        <v>0.19805737992118064</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13573001360453177</v>
+        <v>0.17708178518441048</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12106397657600451</v>
+        <v>0.1581958620710386</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10796860371664009</v>
+        <v>0.1411420471185501</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09627532974765957</v>
+        <v>0.12589373662678519</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08583923869983782</v>
+        <v>0.11228211001852682</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.0765279818682036</v>
+        <v>0.10012626934369954</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08324080473962334</v>
+        <v>0.08927572919484754</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07420997918462727</v>
+        <v>0.07959381489760776</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07095681580804628</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.6304311188415</v>
+        <v>-318.31037089376366</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45187885389123</v>
+        <v>-252.84314020659247</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.1256768555928</v>
+        <v>-200.8407287388819</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.036844314018</v>
+        <v>-159.533818458478</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90256311888004</v>
+        <v>-126.7226657790183</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.703863148583686</v>
+        <v>-100.65995719874785</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.63135845790073</v>
+        <v>-79.95775849730245</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04214464935949</v>
+        <v>-63.513602202014006</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.42556211802136</v>
+        <v>-50.45177722404584</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.376002061031894</v>
+        <v>-40.076694147842325</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.5713073194115</v>
+        <v>-31.83584275430429</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.75561831118638</v>
+        <v>-25.290369228163676</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.725751525986775</v>
+        <v>-20.091706373187257</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.320387164317873</v>
+        <v>-15.963012697938705</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.41149409845602</v>
+        <v>-12.684432713904766</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.897543514724942</v>
+        <v>-10.081395062066367</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.698166048431936</v>
+        <v>-8.015328430163736</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7500007603796974</v>
+        <v>-6.3763071506877855</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.003581278057747</v>
+        <v>-5.0772475636631444</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.421223465287581</v>
+        <v>-4.049371891345345</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.9760297876150676</v>
+        <v>-3.2387503335972276</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.65218170374728</v>
+        <v>-2.603841295804712</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.4456766131634766</v>
+        <v>-2.114091467407268</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.3583196993293047</v>
+        <v>-1.7497847471005887</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.3622562083658578</v>
+        <v>-1.5029191154183843</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.3488646054464277</v>
+        <v>-1.3751838600281705</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.2203039252201102</v>
+        <v>-1.3556671091513546</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0197627466251828</v>
+        <v>-1.364147035105161</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8248608715673508</v>
+        <v>-1.2769687917024937</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.6658280135800183</v>
+        <v>-1.0907171708921064</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.5446205004290064</v>
+        <v>-0.8881091924679683</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4559314805830552</v>
+        <v>-0.7157902476057311</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.39320330178507373</v>
+        <v>-0.5821098997577737</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3481846096156438</v>
+        <v>-0.482994834559962</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.31112412049810756</v>
+        <v>-0.41219833873392453</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.27569589283312607</v>
+        <v>-0.3622016409384416</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.24202888138510242</v>
+        <v>-0.32343925303258225</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.21235801041498745</v>
+        <v>-0.28772827123809025</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18707147265137777</v>
+        <v>-0.2531847430699606</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16520495631656906</v>
+        <v>-0.22198565837650144</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1460057908634091</v>
+        <v>-0.19528062544662345</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12913667852202246</v>
+        <v>-0.17235853590783987</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.11431700363498373</v>
+        <v>-0.15229685998364825</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.10127440185044484</v>
+        <v>-0.13466117242294545</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08977931097961162</v>
+        <v>-0.11917296475994643</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07963600058191946</v>
+        <v>-0.10555048725758412</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0869380949918818</v>
+        <v>-0.09354960920221825</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07712709757839398</v>
+        <v>-0.08296421158575812</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07361680036981377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -1419,440 +1446,449 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9999993345034809</v>
+        <v>0.9999997736986047</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9999989451455382</v>
+        <v>0.9999996413233245</v>
       </c>
       <c r="C1" t="n">
-        <v>0.999998327883102</v>
+        <v>0.9999994315027864</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9999973491568326</v>
+        <v>0.9999990989097635</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9999957968970692</v>
+        <v>0.9999985716600542</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9999933340105743</v>
+        <v>0.9999977357108707</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9999894237656527</v>
+        <v>0.9999964100302213</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9999832092851065</v>
+        <v>0.9999943069825263</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9999733169069356</v>
+        <v>0.9999909688898424</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9999575303608164</v>
+        <v>0.9999856658455675</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9999322388446498</v>
+        <v>0.9999772296367002</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9998914733166392</v>
+        <v>0.9999637801816115</v>
       </c>
       <c r="M1" t="n">
-        <v>0.999825156741065</v>
+        <v>0.9999422660159629</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9997157767355075</v>
+        <v>0.9999076710061965</v>
       </c>
       <c r="O1" t="n">
-        <v>0.999531737879255</v>
+        <v>0.9998515944707804</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9992134466869241</v>
+        <v>0.9997595951216952</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9986430688408009</v>
+        <v>0.9996059734749155</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9975772748114825</v>
+        <v>0.9993430154017752</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9954973749322932</v>
+        <v>0.9988778810306628</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9912854000123695</v>
+        <v>0.9980215098676647</v>
       </c>
       <c r="U1" t="n">
-        <v>0.982585970187106</v>
+        <v>0.9963745156417056</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9648293147062723</v>
+        <v>0.9930767533988458</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9307706763260215</v>
+        <v>0.9862927077130872</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8735417695196898</v>
+        <v>0.9723251206102936</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7951789217923372</v>
+        <v>0.944766095319432</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7103438555266236</v>
+        <v>0.895889330434869</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6341592572035708</v>
+        <v>0.8236326451708879</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5713276511752923</v>
+        <v>0.7389674412550398</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.519635944090548</v>
+        <v>0.6587282464043186</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4761444155386188</v>
+        <v>0.5913965689935393</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.43857179724478373</v>
+        <v>0.536265349106986</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4039454386509752</v>
+        <v>0.49024096870152567</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.36798937231746853</v>
+        <v>0.4509102402687257</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.32779588959094347</v>
+        <v>0.4157076464694546</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2860759481749961</v>
+        <v>0.3807022809975618</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.24900087933592144</v>
+        <v>0.34198933926259567</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.21916847227311112</v>
+        <v>0.30011780468267085</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.19475836616449624</v>
+        <v>0.2608754476373457</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.173402222055951</v>
+        <v>0.22862014641756417</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1542241258508249</v>
+        <v>0.20267100091454285</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.13716561944076663</v>
+        <v>0.1804479584102952</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.12206766484027386</v>
+        <v>0.16054446711677184</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.10867102725574417</v>
+        <v>0.14276680082734328</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.09676729076811026</v>
+        <v>0.12702778453683228</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.08618418950477309</v>
+        <v>0.11307571069491801</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.07677008606713659</v>
+        <v>0.10068188253136702</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.08355452751070754</v>
+        <v>0.08966516799971228</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.07443021937847309</v>
+        <v>0.07986705618431346</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.07114870298951183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-185.6310878099275</v>
+        <v>-318.3107538651732</v>
       </c>
       <c r="B2" t="n">
-        <v>-147.45270556526813</v>
+        <v>-252.8436223363112</v>
       </c>
       <c r="C2" t="n">
-        <v>-117.12671759617913</v>
+        <v>-200.8413356988079</v>
       </c>
       <c r="D2" t="n">
-        <v>-93.03815447416584</v>
+        <v>-159.5345825649209</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.90421240378146</v>
+        <v>-126.72362771042307</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.70593925772429</v>
+        <v>-100.66116815551008</v>
       </c>
       <c r="G2" t="n">
-        <v>-46.633971690277406</v>
+        <v>-79.95928291548246</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.04543364725559</v>
+        <v>-63.51552115905521</v>
       </c>
       <c r="I2" t="n">
-        <v>-29.429700990234057</v>
+        <v>-50.45419270505907</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.38120913449642</v>
+        <v>-40.07973437405138</v>
       </c>
       <c r="K2" t="n">
-        <v>-18.57785572278265</v>
+        <v>-31.83966880617659</v>
       </c>
       <c r="L2" t="n">
-        <v>-14.763848422897809</v>
+        <v>-25.295183213206748</v>
       </c>
       <c r="M2" t="n">
-        <v>-11.7360848668514</v>
+        <v>-20.097761366842445</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.333340240995902</v>
+        <v>-15.97062456991365</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.427688249523214</v>
+        <v>-12.693993621976825</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.917701219272393</v>
+        <v>-10.09338759114908</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.723071203523885</v>
+        <v>-8.030337501294774</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.7803695791425316</v>
+        <v>-6.395022609665074</v>
       </c>
       <c r="S2" t="n">
-        <v>-3.039714904447488</v>
+        <v>-5.100440667272495</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.4621267548629335</v>
+        <v>-4.077806057533521</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.017241657991401</v>
+        <v>-3.272931038027922</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.680739946041769</v>
+        <v>-2.643372816362229</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.4304299911347427</v>
+        <v>-2.1560765042276824</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.2412532332519857</v>
+        <v>-1.785005426960472</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.085339370484382</v>
+        <v>-1.507797492713444</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.943334243342874</v>
+        <v>-1.3008364249212419</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.8124284692963698</v>
+        <v>-1.1364709037320018</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.697297421509127</v>
+        <v>-0.9908132346390384</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6001066219176702</v>
+        <v>-0.8556629208462211</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5199698688910517</v>
+        <v>-0.734676225024578</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.45558964274292596</v>
+        <v>-0.6313543140221193</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.4059328824462969</v>
+        <v>-0.5455522026470633</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3683880983883241</v>
+        <v>-0.4758943836318706</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.33679949596164527</v>
+        <v>-0.4213583810420036</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.30433449225394726</v>
+        <v>-0.38017542185137526</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2698220536229982</v>
+        <v>-0.3474237294164813</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.23701640893542159</v>
+        <v>-0.3157668504025013</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20864176662456127</v>
+        <v>-0.2816538323140598</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18450898844473465</v>
+        <v>-0.247807485032944</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16342272303322905</v>
+        <v>-0.217814339766323</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14474212244111534</v>
+        <v>-0.1923650050985616</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.12824065597480266</v>
+        <v>-0.17034688402598105</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.113682949010807</v>
+        <v>-0.15087647430567572</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.10082559539929782</v>
+        <v>-0.13365291278582878</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08946160275308031</v>
+        <v>-0.11845929665930047</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.07941109389237111</v>
+        <v>-0.10504539041215838</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.08664845797265412</v>
+        <v>-0.09319205351256137</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.07692206137981968</v>
+        <v>-0.08271109855323633</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.07343761843810072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5941879585179306</v>
+        <v>1.51285930408472</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2658891439486557</v>
+        <v>1.9045770223814935</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1115108354196614</v>
+        <v>2.3977204121953304</v>
       </c>
       <c r="D3" t="n">
-        <v>5.176085471576878</v>
+        <v>3.018551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>6.516305533786727</v>
+        <v>3.8001307587134345</v>
       </c>
       <c r="F3" t="n">
-        <v>8.203542627499067</v>
+        <v>4.784081180284992</v>
       </c>
       <c r="G3" t="n">
-        <v>10.327648280495266</v>
+        <v>6.022801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>13.001738864387825</v>
+        <v>7.582257694815012</v>
       </c>
       <c r="I3" t="n">
-        <v>16.368219453889672</v>
+        <v>9.545496890774482</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60636741632535</v>
+        <v>12.017068603998208</v>
       </c>
       <c r="K3" t="n">
-        <v>25.941879585179304</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="L3" t="n">
-        <v>32.65889143948655</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="M3" t="n">
-        <v>41.115108354196614</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>51.76085471576878</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>65.16305533786726</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="P3" t="n">
-        <v>82.03542627499066</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.27648280495266</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>130.01738864387826</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="S3" t="n">
-        <v>163.6821945388967</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="T3" t="n">
-        <v>206.06367416325352</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>259.41879585179305</v>
+        <v>151.285930408472</v>
       </c>
       <c r="V3" t="n">
-        <v>326.5889143948655</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="W3" t="n">
-        <v>411.15108354196616</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="X3" t="n">
-        <v>517.6085471576878</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.6305533786727</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="Z3" t="n">
-        <v>820.3542627499065</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.7648280495266</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="AB3" t="n">
-        <v>1300.1738864387826</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.8219453889672</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060.636741632535</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594.1879585179304</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="AF3" t="n">
-        <v>3265.8891439486556</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4111.510835419662</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="AH3" t="n">
-        <v>5176.085471576877</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="AI3" t="n">
-        <v>6516.305533786727</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8203.542627499066</v>
+        <v>4784.081180284991</v>
       </c>
       <c r="AK3" t="n">
-        <v>10327.648280495267</v>
+        <v>6022.801369947008</v>
       </c>
       <c r="AL3" t="n">
-        <v>13001.738864387826</v>
+        <v>7582.257694815012</v>
       </c>
       <c r="AM3" t="n">
-        <v>16368.219453889671</v>
+        <v>9545.496890774482</v>
       </c>
       <c r="AN3" t="n">
-        <v>20606.367416325353</v>
+        <v>12017.068603998207</v>
       </c>
       <c r="AO3" t="n">
-        <v>25941.879585179304</v>
+        <v>15128.593040847201</v>
       </c>
       <c r="AP3" t="n">
-        <v>32658.891439486557</v>
+        <v>19045.770223814936</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41115.108354196615</v>
+        <v>23977.204121953306</v>
       </c>
       <c r="AR3" t="n">
-        <v>51760.85471576878</v>
+        <v>30185.51157290287</v>
       </c>
       <c r="AS3" t="n">
-        <v>65163.05533786727</v>
+        <v>38001.307587134346</v>
       </c>
       <c r="AT3" t="n">
-        <v>82035.42627499066</v>
+        <v>47840.811802849916</v>
       </c>
       <c r="AU3" t="n">
-        <v>69307.30894527718</v>
+        <v>60228.01369947008</v>
       </c>
       <c r="AV3" t="n">
-        <v>87252.73245427865</v>
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
